--- a/Notes/Associations.xlsx
+++ b/Notes/Associations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="0" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Associations and Mappings" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Users</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>has_and_belongs_to_many stories</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Sting</t>
   </si>
   <si>
-    <t>Text (emoji)</t>
-  </si>
-  <si>
     <t xml:space="preserve">story_title </t>
   </si>
   <si>
@@ -121,6 +115,12 @@
   </si>
   <si>
     <t>Locations</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>string (emoji)</t>
   </si>
 </sst>
 </file>
@@ -174,12 +174,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -286,7 +292,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -314,7 +320,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,6 +327,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -795,18 +815,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
@@ -863,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -876,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -889,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -902,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -919,11 +939,11 @@
       <c r="G12" s="11"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="2"/>
@@ -962,10 +982,10 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -977,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -986,10 +1006,10 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -997,77 +1017,77 @@
       <c r="G20" s="10"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="7"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
+      <c r="B27" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="2"/>
@@ -1086,7 +1106,7 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1104,10 +1124,10 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="7" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1115,12 +1135,8 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -1143,11 +1159,11 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="B39" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="2"/>
@@ -1157,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1166,7 +1182,7 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1184,10 +1200,10 @@
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1196,10 +1212,10 @@
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>

--- a/Notes/Associations.xlsx
+++ b/Notes/Associations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Users</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Sting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">story_title </t>
   </si>
   <si>
     <t>user_id</t>
@@ -815,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -982,7 +979,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>23</v>
@@ -1006,10 +1003,10 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -1084,7 +1081,7 @@
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -1127,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1160,7 +1157,7 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
@@ -1211,12 +1208,8 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
